--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\RingBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC4FC2-1CA6-498E-8923-04A756EDB6C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCBA590-1332-4F6D-A5C7-B0E2DCFFB41C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{56054502-5FBE-4371-8C88-5A7CB6343AE4}"/>
   </bookViews>
@@ -19287,7 +19287,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\RingBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCBA590-1332-4F6D-A5C7-B0E2DCFFB41C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8799D-A1BA-463A-996B-63CFC48990A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{56054502-5FBE-4371-8C88-5A7CB6343AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{56054502-5FBE-4371-8C88-5A7CB6343AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf I" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t xml:space="preserve"> class BlocksRingBuffer&lt;29:char:unsigned int:struct Lomont::MidRingMod&lt;29:unsigned int&gt; &gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> class Lomont::RingBuffer&lt;29:char:unsigned int:struct Lomont::MidRingMod&lt;29:unsigned int&gt; &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> class FullRingBuffer&lt;32:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;32:unsigned int&gt; &gt;</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve"> class BlocksRingBuffer&lt;32:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;32:unsigned int&gt; &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> class Lomont::RingBuffer&lt;32:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;32:unsigned int&gt; &gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> class FullRingBuffer&lt;50:char:unsigned int:struct Lomont::MidRingMod&lt;50:unsigned int&gt; &gt;</t>
@@ -281,9 +275,6 @@
     <t xml:space="preserve"> class BlocksRingBuffer&lt;50:char:unsigned int:struct Lomont::MidRingMod&lt;50:unsigned int&gt; &gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> class Lomont::RingBuffer&lt;50:char:unsigned int:struct Lomont::MidRingMod&lt;50:unsigned int&gt; &gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> class FullRingBuffer&lt;128:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;128:unsigned int&gt; &gt;</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve"> class BlocksRingBuffer&lt;128:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;128:unsigned int&gt; &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> class Lomont::RingBuffer&lt;128:char:unsigned int:struct Lomont::FastRingModPowerOfTwo&lt;128:unsigned int&gt; &gt;</t>
   </si>
   <si>
     <t>Performance IV - double</t>
@@ -339,6 +327,18 @@
   </si>
   <si>
     <t>Modulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Lomont::RingBuffer&lt;128:char:int:struct Lomont::FastRingModPowerOfTwo&lt;128:int&gt; &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Lomont::RingBuffer&lt;29:char:int:struct Lomont::MidRingMod&lt;29:int&gt; &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Lomont::RingBuffer&lt;32:char:int:struct Lomont::FastRingModPowerOfTwo&lt;32:int&gt; &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Lomont::RingBuffer&lt;50:char:int:struct Lomont::MidRingMod&lt;50:int&gt; &gt;</t>
   </si>
 </sst>
 </file>
@@ -1008,16 +1008,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>508.6</c:v>
+                  <c:v>497.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1525.8</c:v>
+                  <c:v>1226.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.1</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>381.4</c:v>
+                  <c:v>246.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,16 +1079,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>508.6</c:v>
+                  <c:v>497.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1525.8</c:v>
+                  <c:v>1492.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.6</c:v>
+                  <c:v>21.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>381.4</c:v>
+                  <c:v>254.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,7 +1855,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2257,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1589.4</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2737,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +2836,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,7 +2935,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,7 +3034,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3133,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.1</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,7 +3335,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>272.39999999999998</c:v>
+                  <c:v>254.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6341,13 +6341,13 @@
                   <c:v>363.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>317.8</c:v>
@@ -6495,16 +6495,16 @@
                   <c:v>363.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.8</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>317.8</c:v>
+                  <c:v>331.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,19 +6923,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.1</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7000,19 +7000,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.6</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7077,19 +7077,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.6</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,19 +7154,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.7</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17558,8 +17558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED06BD-1E73-4AC6-8F16-48B9B2F155DE}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:O29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17615,7 +17615,7 @@
         <v>363.3</v>
       </c>
       <c r="E3">
-        <v>293.39999999999998</v>
+        <v>317.8</v>
       </c>
       <c r="F3">
         <v>363.3</v>
@@ -17653,13 +17653,13 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E4">
         <v>305.10000000000002</v>
       </c>
       <c r="F4">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -17668,21 +17668,25 @@
         <v>70</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
       </c>
       <c r="L4">
+        <f>D3</f>
         <v>363.3</v>
       </c>
       <c r="M4">
+        <f>D8</f>
         <v>476.8</v>
       </c>
       <c r="N4">
+        <f>D13</f>
         <v>363.3</v>
       </c>
       <c r="O4">
+        <f>D18</f>
         <v>476.8</v>
       </c>
     </row>
@@ -17697,13 +17701,13 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E5">
-        <v>272.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F5">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17712,21 +17716,25 @@
         <v>71</v>
       </c>
       <c r="I5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L5">
-        <v>317.8</v>
+        <f>D4</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="M5">
+        <f>D9</f>
         <v>448.7</v>
       </c>
       <c r="N5">
-        <v>317.8</v>
+        <f>D14</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="O5">
+        <f>D19</f>
         <v>508.6</v>
       </c>
     </row>
@@ -17741,13 +17749,13 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E6">
-        <v>272.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F6">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -17756,21 +17764,25 @@
         <v>72</v>
       </c>
       <c r="I6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L6">
-        <v>317.8</v>
+        <f>D5</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="M6">
+        <f>D10</f>
         <v>448.7</v>
       </c>
       <c r="N6">
-        <v>317.8</v>
+        <f>D15</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="O6">
+        <f>D20</f>
         <v>508.6</v>
       </c>
     </row>
@@ -17788,7 +17800,7 @@
         <v>317.8</v>
       </c>
       <c r="E7">
-        <v>231.1</v>
+        <v>317.8</v>
       </c>
       <c r="F7">
         <v>317.8</v>
@@ -17797,24 +17809,28 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I7">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L7">
-        <v>317.8</v>
+        <f>D6</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="M7">
+        <f>D11</f>
         <v>448.7</v>
       </c>
       <c r="N7">
-        <v>317.8</v>
+        <f>D16</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="O7">
+        <f>D21</f>
         <v>508.6</v>
       </c>
     </row>
@@ -17832,7 +17848,7 @@
         <v>476.8</v>
       </c>
       <c r="E8">
-        <v>401.5</v>
+        <v>476.8</v>
       </c>
       <c r="F8">
         <v>476.8</v>
@@ -17847,18 +17863,22 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L8">
+        <f>D7</f>
         <v>317.8</v>
       </c>
       <c r="M8">
+        <f>D12</f>
         <v>448.7</v>
       </c>
       <c r="N8">
-        <v>317.8</v>
+        <f>D17</f>
+        <v>331.7</v>
       </c>
       <c r="O8">
+        <f>D22</f>
         <v>508.6</v>
       </c>
     </row>
@@ -17876,7 +17896,7 @@
         <v>448.7</v>
       </c>
       <c r="E9">
-        <v>401.5</v>
+        <v>448.7</v>
       </c>
       <c r="F9">
         <v>448.7</v>
@@ -17885,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>17</v>
@@ -17905,7 +17925,7 @@
         <v>448.7</v>
       </c>
       <c r="E10">
-        <v>423.8</v>
+        <v>448.7</v>
       </c>
       <c r="F10">
         <v>448.7</v>
@@ -17914,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -17943,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>17</v>
@@ -17963,7 +17983,7 @@
         <v>448.7</v>
       </c>
       <c r="E12">
-        <v>346.7</v>
+        <v>448.7</v>
       </c>
       <c r="F12">
         <v>448.7</v>
@@ -17972,7 +17992,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -17992,7 +18012,7 @@
         <v>363.3</v>
       </c>
       <c r="E13">
-        <v>363.3</v>
+        <v>346.7</v>
       </c>
       <c r="F13">
         <v>363.3</v>
@@ -18018,22 +18038,22 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E14">
-        <v>272.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F14">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -18047,22 +18067,22 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E15">
-        <v>246.1</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F15">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -18076,22 +18096,22 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="E16">
-        <v>293.39999999999998</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="F16">
-        <v>317.8</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -18105,22 +18125,22 @@
         <v>16</v>
       </c>
       <c r="D17">
+        <v>331.7</v>
+      </c>
+      <c r="E17">
         <v>317.8</v>
       </c>
-      <c r="E17">
-        <v>282.5</v>
-      </c>
       <c r="F17">
-        <v>317.8</v>
+        <v>331.7</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -18137,7 +18157,7 @@
         <v>476.8</v>
       </c>
       <c r="E18">
-        <v>423.8</v>
+        <v>476.8</v>
       </c>
       <c r="F18">
         <v>476.8</v>
@@ -18166,7 +18186,7 @@
         <v>508.6</v>
       </c>
       <c r="E19">
-        <v>401.5</v>
+        <v>508.6</v>
       </c>
       <c r="F19">
         <v>508.6</v>
@@ -18175,7 +18195,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I19">
         <v>15</v>
@@ -18195,7 +18215,7 @@
         <v>508.6</v>
       </c>
       <c r="E20">
-        <v>331.7</v>
+        <v>508.6</v>
       </c>
       <c r="F20">
         <v>508.6</v>
@@ -18204,7 +18224,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <v>15</v>
@@ -18224,7 +18244,7 @@
         <v>508.6</v>
       </c>
       <c r="E21">
-        <v>476.8</v>
+        <v>508.6</v>
       </c>
       <c r="F21">
         <v>508.6</v>
@@ -18233,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>15</v>
@@ -18253,7 +18273,7 @@
         <v>508.6</v>
       </c>
       <c r="E22">
-        <v>476.8</v>
+        <v>508.6</v>
       </c>
       <c r="F22">
         <v>508.6</v>
@@ -18262,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I22">
         <v>15</v>
@@ -18270,7 +18290,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -18284,13 +18304,13 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="F24">
-        <v>69.3</v>
+        <v>22.4</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -18299,7 +18319,7 @@
         <v>58</v>
       </c>
       <c r="I24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>29</v>
@@ -18328,10 +18348,10 @@
         <v>19.5</v>
       </c>
       <c r="E25">
-        <v>16.899999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="F25">
-        <v>108.9</v>
+        <v>22.4</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -18346,16 +18366,20 @@
         <v>68</v>
       </c>
       <c r="L25">
+        <f>D24</f>
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <f>D29</f>
         <v>19.5</v>
       </c>
-      <c r="M25">
-        <v>19</v>
-      </c>
       <c r="N25">
-        <v>19.5</v>
+        <f>D34</f>
+        <v>20</v>
       </c>
       <c r="O25">
-        <v>18.600000000000001</v>
+        <f>D39</f>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -18369,13 +18393,13 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="E26">
-        <v>18.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="F26">
-        <v>108.9</v>
+        <v>22.4</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -18384,22 +18408,26 @@
         <v>71</v>
       </c>
       <c r="I26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L26">
+        <f>D25</f>
         <v>19.5</v>
       </c>
       <c r="M26">
+        <f>D30</f>
+        <v>19.5</v>
+      </c>
+      <c r="N26">
+        <f>D35</f>
         <v>20</v>
       </c>
-      <c r="N26">
+      <c r="O26">
+        <f>D40</f>
         <v>20</v>
-      </c>
-      <c r="O26">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -18413,13 +18441,13 @@
         <v>16</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="E27">
-        <v>18.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="F27">
-        <v>95.3</v>
+        <v>22.4</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -18428,22 +18456,26 @@
         <v>72</v>
       </c>
       <c r="I27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L27">
+        <f>D26</f>
+        <v>19.5</v>
+      </c>
+      <c r="M27">
+        <f>D31</f>
         <v>20</v>
       </c>
-      <c r="M27">
-        <v>19.5</v>
-      </c>
       <c r="N27">
-        <v>21.1</v>
+        <f>D36</f>
+        <v>19</v>
       </c>
       <c r="O27">
-        <v>22.4</v>
+        <f>D41</f>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -18457,37 +18489,41 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="E28">
-        <v>18.600000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="F28">
-        <v>108.9</v>
+        <v>22.4</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I28">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L28">
+        <f>D27</f>
+        <v>19.5</v>
+      </c>
+      <c r="M28">
+        <f>D32</f>
         <v>20</v>
       </c>
-      <c r="M28">
+      <c r="N28">
+        <f>D37</f>
+        <v>19.5</v>
+      </c>
+      <c r="O28">
+        <f>D42</f>
         <v>20</v>
-      </c>
-      <c r="N28">
-        <v>20.6</v>
-      </c>
-      <c r="O28">
-        <v>21.7</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -18501,13 +18537,13 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="E29">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="F29">
-        <v>20.6</v>
+        <v>22.4</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -18516,22 +18552,26 @@
         <v>60</v>
       </c>
       <c r="I29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L29">
-        <v>21.1</v>
+        <f>D28</f>
+        <v>19.5</v>
       </c>
       <c r="M29">
+        <f>D33</f>
+        <v>19.5</v>
+      </c>
+      <c r="N29">
+        <f>D38</f>
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <f>D43</f>
         <v>20.6</v>
-      </c>
-      <c r="N29">
-        <v>21.1</v>
-      </c>
-      <c r="O29">
-        <v>21.7</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -18545,22 +18585,22 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="E30">
         <v>17.7</v>
       </c>
       <c r="F30">
-        <v>127.1</v>
+        <v>22.4</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -18574,22 +18614,22 @@
         <v>16</v>
       </c>
       <c r="D31">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>18.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="F31">
-        <v>27.2</v>
+        <v>22.4</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -18606,16 +18646,16 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>16.899999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="F32">
-        <v>108.9</v>
+        <v>22.4</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32">
         <v>38</v>
@@ -18632,22 +18672,22 @@
         <v>16</v>
       </c>
       <c r="D33">
-        <v>20.6</v>
+        <v>19.5</v>
       </c>
       <c r="E33">
-        <v>18.600000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="F33">
-        <v>127.1</v>
+        <v>22.4</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I33">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -18661,13 +18701,13 @@
         <v>16</v>
       </c>
       <c r="D34">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>17.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F34">
-        <v>33.1</v>
+        <v>20.6</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -18676,7 +18716,7 @@
         <v>62</v>
       </c>
       <c r="I34">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -18693,16 +18733,16 @@
         <v>20</v>
       </c>
       <c r="E35">
-        <v>15.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F35">
-        <v>108.9</v>
+        <v>21.1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>38</v>
@@ -18719,22 +18759,22 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="E36">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="F36">
-        <v>108.9</v>
+        <v>20.6</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -18748,22 +18788,22 @@
         <v>16</v>
       </c>
       <c r="D37">
+        <v>19.5</v>
+      </c>
+      <c r="E37">
+        <v>17.7</v>
+      </c>
+      <c r="F37">
         <v>20.6</v>
-      </c>
-      <c r="E37">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F37">
-        <v>76.2</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -18777,22 +18817,22 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>21.1</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>18.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="F38">
-        <v>108.9</v>
+        <v>20.6</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I38">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -18806,13 +18846,13 @@
         <v>16</v>
       </c>
       <c r="D39">
-        <v>18.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="F39">
-        <v>36.299999999999997</v>
+        <v>127.1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -18821,7 +18861,7 @@
         <v>63</v>
       </c>
       <c r="I39">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -18835,22 +18875,22 @@
         <v>16</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>17.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F40">
-        <v>95.3</v>
+        <v>21.1</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I40">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -18864,22 +18904,22 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>22.4</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>19.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F41">
-        <v>127.1</v>
+        <v>21.1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -18893,22 +18933,22 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F42">
-        <v>108.9</v>
+        <v>34.6</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -18922,22 +18962,22 @@
         <v>16</v>
       </c>
       <c r="D43">
+        <v>20.6</v>
+      </c>
+      <c r="E43">
+        <v>16.2</v>
+      </c>
+      <c r="F43">
         <v>21.7</v>
-      </c>
-      <c r="E43">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F43">
-        <v>31.7</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I43">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -18951,7 +18991,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18991,7 +19031,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -19005,34 +19045,34 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="E3">
-        <v>346.7</v>
+        <v>457.7</v>
       </c>
       <c r="F3">
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -19046,46 +19086,46 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="E4">
-        <v>331.7</v>
+        <v>497.5</v>
       </c>
       <c r="F4">
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>85</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>89</v>
       </c>
       <c r="M4">
         <f>D3</f>
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="N4">
         <f>D5</f>
-        <v>1525.8</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="O4">
         <f>D7</f>
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
       <c r="P4">
         <f>D9</f>
-        <v>381.4</v>
+        <v>246.1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>128</v>
@@ -19094,46 +19134,46 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>1525.8</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="E5">
-        <v>1525.8</v>
+        <v>1183.8</v>
       </c>
       <c r="F5">
-        <v>1525.8</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <f>D4</f>
-        <v>508.6</v>
+        <v>497.5</v>
       </c>
       <c r="N5">
         <f>D6</f>
-        <v>1525.8</v>
+        <v>1492.7</v>
       </c>
       <c r="O5">
         <f>D8</f>
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="P5">
         <f>D10</f>
-        <v>381.4</v>
+        <v>254.3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>128</v>
@@ -19142,22 +19182,22 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>1525.8</v>
+        <v>1492.7</v>
       </c>
       <c r="E6">
-        <v>1271.5</v>
+        <v>1430.5</v>
       </c>
       <c r="F6">
-        <v>1525.8</v>
+        <v>1492.7</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -19171,22 +19211,22 @@
         <v>16</v>
       </c>
       <c r="D7">
+        <v>19.2</v>
+      </c>
+      <c r="E7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F7">
         <v>21.1</v>
-      </c>
-      <c r="E7">
-        <v>15.5</v>
-      </c>
-      <c r="F7">
-        <v>127.1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -19200,27 +19240,27 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="E8">
-        <v>18.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="F8">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I8">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>128</v>
@@ -19229,27 +19269,27 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>381.4</v>
+        <v>246.1</v>
       </c>
       <c r="E9">
-        <v>254.3</v>
+        <v>231.1</v>
       </c>
       <c r="F9">
-        <v>381.4</v>
+        <v>263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>128</v>
@@ -19258,22 +19298,22 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>381.4</v>
+        <v>254.3</v>
       </c>
       <c r="E10">
-        <v>254.3</v>
+        <v>238.4</v>
       </c>
       <c r="F10">
-        <v>381.4</v>
+        <v>263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -19287,7 +19327,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19326,7 +19366,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -19346,7 +19386,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>114.4</v>
+        <v>124.3</v>
       </c>
       <c r="F3">
         <v>130</v>
@@ -19382,7 +19422,7 @@
         <v>560.9</v>
       </c>
       <c r="E4">
-        <v>529.79999999999995</v>
+        <v>560.9</v>
       </c>
       <c r="F4">
         <v>560.9</v>
@@ -19421,7 +19461,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>17.3</v>
+        <v>15.8</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -19433,7 +19473,7 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -19469,7 +19509,7 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -19487,13 +19527,13 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>63.5</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>63.5</v>
       </c>
       <c r="F7">
-        <v>56</v>
+        <v>63.5</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -19502,14 +19542,14 @@
         <v>52</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -19526,7 +19566,7 @@
         <v>476.8</v>
       </c>
       <c r="E8">
-        <v>454.1</v>
+        <v>476.8</v>
       </c>
       <c r="F8">
         <v>476.8</v>
@@ -19562,7 +19602,7 @@
         <v>501.9</v>
       </c>
       <c r="E9">
-        <v>443.5</v>
+        <v>489</v>
       </c>
       <c r="F9">
         <v>501.9</v>
@@ -19571,13 +19611,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -19598,7 +19638,7 @@
         <v>501.9</v>
       </c>
       <c r="E10">
-        <v>414.6</v>
+        <v>489</v>
       </c>
       <c r="F10">
         <v>501.9</v>
@@ -19607,13 +19647,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -19622,7 +19662,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>128</v>
@@ -19631,34 +19671,34 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>1589.4</v>
+        <v>1192</v>
       </c>
       <c r="E11">
-        <v>1467.1</v>
+        <v>1192</v>
       </c>
       <c r="F11">
-        <v>1589.4</v>
+        <v>1192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>1589.4</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>128</v>
@@ -19670,7 +19710,7 @@
         <v>1467.1</v>
       </c>
       <c r="E12">
-        <v>908.2</v>
+        <v>1467.1</v>
       </c>
       <c r="F12">
         <v>1467.1</v>
@@ -19679,13 +19719,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -19694,7 +19734,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -19711,10 +19751,10 @@
         <v>0.2</v>
       </c>
       <c r="E14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -19723,10 +19763,10 @@
         <v>27</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M14">
         <f>D14</f>
@@ -19744,13 +19784,13 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>63.5</v>
+        <v>11.9</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -19759,14 +19799,14 @@
         <v>42</v>
       </c>
       <c r="I15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:M21" si="1">D15</f>
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -19780,13 +19820,13 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>11.9</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -19795,14 +19835,14 @@
         <v>52</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -19816,13 +19856,13 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>18.100000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="F17">
-        <v>38.1</v>
+        <v>21.1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -19831,14 +19871,14 @@
         <v>63</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
         <v>68</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -19852,29 +19892,29 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>21.1</v>
       </c>
       <c r="E18">
         <v>18.100000000000001</v>
       </c>
       <c r="F18">
-        <v>127.1</v>
+        <v>21.1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -19888,34 +19928,34 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>31.7</v>
+        <v>22.4</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>128</v>
@@ -19930,19 +19970,19 @@
         <v>238.4</v>
       </c>
       <c r="F20">
-        <v>762.9</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
@@ -19951,7 +19991,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>128</v>
@@ -19960,29 +20000,29 @@
         <v>16</v>
       </c>
       <c r="D21">
-        <v>272.39999999999998</v>
+        <v>254.3</v>
       </c>
       <c r="E21">
         <v>238.4</v>
       </c>
       <c r="F21">
-        <v>762.9</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>272.39999999999998</v>
+        <v>254.3</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\RingBuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8799D-A1BA-463A-996B-63CFC48990A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C513B63-3919-4B84-A723-5CF3A84633B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{56054502-5FBE-4371-8C88-5A7CB6343AE4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{56054502-5FBE-4371-8C88-5A7CB6343AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf I" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Perf IV" sheetId="4" r:id="rId4"/>
     <sheet name="Perf V" sheetId="5" r:id="rId5"/>
     <sheet name="Perf VI" sheetId="6" r:id="rId6"/>
+    <sheet name="Atmel" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="113">
   <si>
     <t>Performance I</t>
   </si>
@@ -340,11 +341,50 @@
   <si>
     <t xml:space="preserve"> class Lomont::RingBuffer&lt;50:char:int:struct Lomont::MidRingMod&lt;50:int&gt; &gt;</t>
   </si>
+  <si>
+    <t>Tested 128 size buffer, 16 size blocks, 100'000 bytes per pass</t>
+  </si>
+  <si>
+    <t>Mod Slow</t>
+  </si>
+  <si>
+    <t>Mod Mid</t>
+  </si>
+  <si>
+    <t>Mod Fast</t>
+  </si>
+  <si>
+    <t>Pred</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Bytes per pass</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>kB/S</t>
+  </si>
+  <si>
+    <t>Blocked Blocks</t>
+  </si>
+  <si>
+    <t>Blocks Pred</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,8 +414,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3429,6 +3471,892 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="996837840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Atmel SAMD21, Single test</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Byte and block methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1713.2675438596491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1713.2675438596491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1713.2675438596491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atomics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>561.24281609195407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod Slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>542.53472222222229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod Mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>551.73022598870057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mod Fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>536.57280219780216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1302.0833333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1236.1550632911392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1236.1550632911392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1236.1550632911392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1236.1550632911392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocked Blocks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2790.1785714285711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Atmel!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocks Pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Atmel!$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2639.3581081081084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CA5C-41F7-B545-C0D6FEA520CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="669021912"/>
+        <c:axId val="669020928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669021912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669020928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669020928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669021912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7533,6 +8461,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9365,6 +10333,511 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14355,6 +15828,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C8F388-70DC-4396-94CD-05E2B539490F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19326,7 +20840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E64B0-6AD7-482B-8160-A019A5199AA5}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
@@ -20029,4 +21543,371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47ACD5-B5E4-4CC7-A654-B0196E3D05F2}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1">
+        <f>($D$18/(D3/1000)/1024)</f>
+        <v>1713.2675438596491</v>
+      </c>
+      <c r="I3" t="str">
+        <f>C3</f>
+        <v>Simple</v>
+      </c>
+      <c r="J3" s="2">
+        <f>E3</f>
+        <v>1713.2675438596491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E16" si="0">($D$18/(D4/1000)/1024)</f>
+        <v>1713.2675438596491</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I16" si="1">C4</f>
+        <v>Generic</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J16" si="2">E4</f>
+        <v>1713.2675438596491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1713.2675438596491</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Locked</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>1713.2675438596491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>174</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>561.24281609195407</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Atomics</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>561.24281609195407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>542.53472222222229</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Mod Slow</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>542.53472222222229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>551.73022598870057</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Mod Mid</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>551.73022598870057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>536.57280219780216</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Mod Fast</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>536.57280219780216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1302.0833333333335</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Relaxed</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>1302.0833333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1236.1550632911392</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>Full</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>1236.1550632911392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1236.1550632911392</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>Cache</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>1236.1550632911392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1236.1550632911392</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>Blocks</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>1236.1550632911392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1236.1550632911392</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>Pred</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>1236.1550632911392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>2790.1785714285711</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="2">
+        <f>E15</f>
+        <v>2790.1785714285711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>2639.3581081081084</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2">
+        <f>E16</f>
+        <v>2639.3581081081084</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>